--- a/2. Semester/Project control/jan-29-2026/sumo statechart.xlsx
+++ b/2. Semester/Project control/jan-29-2026/sumo statechart.xlsx
@@ -8,26 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madss\Documents\School\2. Semester\Project control\jan-29-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0156AC6-EDD2-4C5D-9E25-5A86BF17E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEFD50CA-9DCC-4ED4-9DC7-3643E1328672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tom lille" sheetId="1" r:id="rId1"/>
-    <sheet name="Tom stor" sheetId="3" r:id="rId2"/>
-    <sheet name="Tom lille (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Tom lille (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="Tom lille" sheetId="1" r:id="rId2"/>
+    <sheet name="Tom stor" sheetId="3" r:id="rId3"/>
+    <sheet name="Tom lille (2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>EVENT →</t>
   </si>
@@ -146,12 +159,49 @@
   <si>
     <t xml:space="preserve">     if ChkForCM = True -&gt; CM, else Check_border</t>
   </si>
+  <si>
+    <t>EVENT_BUTTON_PRESS</t>
+  </si>
+  <si>
+    <t>EVENT_TIMEOUT</t>
+  </si>
+  <si>
+    <t>STATE_INIT</t>
+  </si>
+  <si>
+    <t>STATE_STOP</t>
+  </si>
+  <si>
+    <t>STATE_STOP_ACCEPT_BUTTON</t>
+  </si>
+  <si>
+    <t>STATE_WALK</t>
+  </si>
+  <si>
+    <t>EVENT_INIT_OK</t>
+  </si>
+  <si>
+    <t>red_light_on()</t>
+  </si>
+  <si>
+    <t>sleep(10)</t>
+  </si>
+  <si>
+    <t>red_light_off() 
+green_light_on() 
+sleep(10)</t>
+  </si>
+  <si>
+    <t>red_light_on() 
+green_light_off()  
+sleep(10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +282,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -316,49 +372,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,7 +396,61 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,6 +730,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ED6E57-A090-4764-9ACC-DD5283E937EE}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="7" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -670,206 +1017,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -895,7 +1242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C17B026-0C0C-4880-8480-E8030D1C0B36}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -912,26 +1259,26 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
@@ -940,7 +1287,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -949,7 +1296,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -958,7 +1305,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -967,7 +1314,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -976,7 +1323,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -985,7 +1332,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -994,7 +1341,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -1003,7 +1350,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -1012,7 +1359,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -1021,7 +1368,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1030,7 +1377,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -1057,11 +1404,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F43E6D-59D5-4660-8137-17E590EDF930}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1076,268 +1423,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="31" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1351,12 +1698,12 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
